--- a/biology/Zoologie/Anacridium_aegyptium/Anacridium_aegyptium.xlsx
+++ b/biology/Zoologie/Anacridium_aegyptium/Anacridium_aegyptium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Criquet égyptien
 Le criquet égyptien (Anacridium aegyptium) est une espèce de criquets voyageurs.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le criquet égyptien est un orthoptère dont la longueur varie entre 45 et 65 millimètres, le mâle étant légèrement plus petit que la femelle.
 Il est le plus grand criquet présent en France et l'un des plus longs parmi les insectes d'Europe occidentale.
@@ -549,7 +563,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le criquet égyptien se répartit sur toute la région méditerranéenne, ainsi qu'en Asie de l'Ouest.
 Il est parfois signalé plus au Nord, en France, comme dans les départements de l'Aisne et de Côte-d'Or. Cependant, il semblerait qu'il ne s'agisse que d'individus isolés introduits accidentellement via des transports de fruits et légumes.
@@ -581,7 +597,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacridium aegyptium est univoltin avec une diapause imaginale en hiver. La ponte a lieu au printemps, le développement larvaire en été et les premiers adultes apparaissent à l'automne.
 </t>
@@ -612,7 +630,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le criquet égyptien fréquente les biotopes chauds et secs où il se tient surtout dans les buissons et sur les arbustes dans le maquis, la garrigue et  autres zones boisées sèches.
 </t>
@@ -643,7 +663,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(la) Linneus, 1764 : Museum S.R.M. Ludovicae Ulricae reginae Svecorum, Gothorum, Vandalorum,… In quo animalia raroria, exotica, imprimis Insecta et Conchilia describuntur et determinantur Prodromi instar editum.</t>
         </is>
